--- a/CSC 120 34/Excel/Capstone/ExcelCapstone_AmooMichael.xlsx
+++ b/CSC 120 34/Excel/Capstone/ExcelCapstone_AmooMichael.xlsx
@@ -1,55 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.amoo\Documents\GitHub\HU-CSC-Work\CSC 120 34\Excel\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3619b2ab0c63f38e/Documents/GitHub/HU-CSC-Work/CSC 120 34/Excel/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE37668-110B-474A-8F90-B3AF79867EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{FBE37668-110B-474A-8F90-B3AF79867EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4D2F3A-7788-4173-9393-8DDE1E020C92}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7287A304-4F4C-44B0-9DDB-285340D2E808}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7287A304-4F4C-44B0-9DDB-285340D2E808}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Data" sheetId="1" r:id="rId1"/>
     <sheet name="Cap Size" sheetId="2" r:id="rId2"/>
+    <sheet name="Bar Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Combo Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="Pie Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Student Name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stock Calculator</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -167,24 +158,39 @@
   <si>
     <t>Warner Bros</t>
   </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Michael Amoo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stock Calculator</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,24 +213,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF202124"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,24 +262,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -269,10 +297,4073 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microsoft Corp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tesla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PayPal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Groupon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Warner Bros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Shares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5919-46F7-8FBB-BF63562F0D37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="874701839"/>
+        <c:axId val="874720079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="874701839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874720079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="874720079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874701839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Combo Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 1 Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42913.440000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52563.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3796.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24894.079999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7278.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115211.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5054.3099999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>760.49999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B04-4E9F-A5D0-61C50759461B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 2 Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$I$5:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42796.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115456.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52370.990000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3785.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24986.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7379.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116003.35999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5064.0999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B04-4E9F-A5D0-61C50759461B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:overlap val="-27"/>
+        <c:axId val="928634095"/>
+        <c:axId val="928634575"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain/Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$K$5:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1500000000000341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3600000000000136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15000000000000568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.59999999999999432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63999999999998636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.23000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.7899999999999636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.10999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9999999999998934E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B04-4E9F-A5D0-61C50759461B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="920097471"/>
+        <c:axId val="669398671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="928634095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928634575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928634575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928634095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="669398671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="920097471"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="920097471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="669398671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stock Data'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Allocation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-2D20-4857-8E32-25E8A7A50483}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stock Data'!$A$5:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TSLA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>META</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AMZN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>INTC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PYPL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GRPN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NFLX</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ROKU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WBD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stock Data'!$J$5:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-2D20-4857-8E32-25E8A7A50483}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9FAE05EA-BDAD-40C4-A3B5-04B9019E5915}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{417905AC-C0F9-46B7-80CC-7C1AE55505A9}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9BC2B09B-49D8-499C-81AB-E1D9DCC6D55D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE0F9EB-7938-C2CE-DF04-9F1322C09231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385B42FB-E6D7-5C3A-410B-CE3756FAD02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B9D6A4-56DC-D901-7C2E-A9B05CA88441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +4401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +4507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +4649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,213 +4657,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086D3EF2-F21E-48AC-A8A2-AC6408A87D47}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3130000000000</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>VLOOKUP(C5,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E5" s="6">
+        <v>102</v>
+      </c>
+      <c r="F5" s="6">
+        <v>420.72</v>
+      </c>
+      <c r="G5" s="6">
+        <f>PRODUCT(E5,F5)</f>
+        <v>42913.440000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>419.57</v>
+      </c>
+      <c r="I5" s="6">
+        <f>PRODUCT(E5,H5)</f>
+        <v>42796.14</v>
+      </c>
+      <c r="J5" s="6">
+        <f>QUOTIENT(B17,G5)</f>
+        <v>21</v>
+      </c>
+      <c r="K5" s="6">
+        <f>(F5 - H5)</f>
+        <v>1.1500000000000341</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1900000000000</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>VLOOKUP(C6,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E6" s="6">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6">
+        <v>759.64</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G16" si="0">PRODUCT(E6,F6)</f>
+        <v>56973</v>
+      </c>
+      <c r="H6" s="6">
+        <v>762</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I16" si="1">PRODUCT(E6,H6)</f>
+        <v>57150</v>
+      </c>
+      <c r="J6" s="6">
+        <f>QUOTIENT(B17,G6)</f>
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K16" si="2">(F6 - H6)</f>
+        <v>-2.3600000000000136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>460750000000</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>VLOOKUP(C7,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E7" s="6">
+        <v>80</v>
+      </c>
+      <c r="F7" s="6">
+        <v>146.9</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>11752</v>
+      </c>
+      <c r="H7" s="6">
+        <v>147.05000000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>11764</v>
+      </c>
+      <c r="J7" s="6">
+        <f>QUOTIENT(B17,G7)</f>
+        <v>79</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.15000000000000568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1200000000000</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>VLOOKUP(C8,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E8" s="6">
+        <v>240</v>
+      </c>
+      <c r="F8" s="6">
+        <v>478</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>114720</v>
+      </c>
+      <c r="H8" s="6">
+        <v>481.07</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>115456.8</v>
+      </c>
+      <c r="J8" s="6">
+        <f>QUOTIENT(B17,G8)</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.0699999999999932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2550000000000</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>VLOOKUP(C9,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="6">
+        <v>164.4</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>32880</v>
+      </c>
+      <c r="H9" s="6">
+        <v>165</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
+      <c r="J9" s="6">
+        <f>QUOTIENT(B17,G9)</f>
+        <v>28</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1820000000000</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>VLOOKUP(C10,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E10" s="6">
+        <v>301</v>
+      </c>
+      <c r="F10" s="6">
+        <v>174.63</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>52563.63</v>
+      </c>
+      <c r="H10" s="6">
+        <v>173.99</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>52370.990000000005</v>
+      </c>
+      <c r="J10" s="6">
+        <f>QUOTIENT(B17,G10)</f>
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.63999999999998636</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7">
+        <v>145590000000</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>VLOOKUP(C11,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E11" s="6">
+        <v>111</v>
+      </c>
+      <c r="F11" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>3796.2000000000003</v>
+      </c>
+      <c r="H11" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>3785.1000000000004</v>
+      </c>
+      <c r="J11" s="6">
+        <f>QUOTIENT(B17,G11)</f>
+        <v>247</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7">
+        <v>65590000000</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f>VLOOKUP(C12,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E12" s="6">
+        <v>401</v>
+      </c>
+      <c r="F12" s="6">
+        <v>62.08</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>24894.079999999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>62.31</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>24986.31</v>
+      </c>
+      <c r="J12" s="6">
+        <f>QUOTIENT(B17,G12)</f>
+        <v>37</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.23000000000000398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7">
+        <v>302920000</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>VLOOKUP(C13,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Small</v>
+      </c>
+      <c r="E13" s="6">
+        <v>776</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>7278.880000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>9.51</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>7379.76</v>
+      </c>
+      <c r="J13" s="6">
+        <f>QUOTIENT(B17,G13)</f>
+        <v>129</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.12999999999999901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
+        <v>240200000000</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>VLOOKUP(C14,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E14" s="6">
+        <v>209</v>
+      </c>
+      <c r="F14" s="6">
+        <v>551.25</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>115211.25</v>
+      </c>
+      <c r="H14" s="6">
+        <v>555.04</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>116003.35999999999</v>
+      </c>
+      <c r="J14" s="6">
+        <f>QUOTIENT(B17,G14)</f>
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3130000000000</v>
-      </c>
-      <c r="E5">
-        <v>102</v>
-      </c>
-      <c r="F5">
-        <v>420.72</v>
-      </c>
-      <c r="H5">
-        <v>419.57</v>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.7899999999999636</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2170000000000</v>
-      </c>
-      <c r="E6">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>866.58</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8170000000</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>VLOOKUP(C15,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Mid</v>
+      </c>
+      <c r="E15" s="6">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6">
+        <v>56.79</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>5054.3099999999995</v>
+      </c>
+      <c r="H15" s="6">
+        <v>56.9</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>5064.0999999999995</v>
+      </c>
+      <c r="J15" s="6">
+        <f>QUOTIENT(B17,G15)</f>
+        <v>185</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.10999999999999943</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20490000000</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>VLOOKUP(C16,'Cap Size'!$A$2:$B$4,2)</f>
+        <v>Large</v>
+      </c>
+      <c r="E16" s="6">
+        <v>90</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>760.49999999999989</v>
+      </c>
+      <c r="H16" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="J16" s="6">
+        <f>QUOTIENT(B17,G16)</f>
+        <v>1235</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9999999999998934E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
+      <c r="B17" s="6">
+        <f>SUM(G5:G16,I5:I16)</f>
+        <v>939309.85000000009</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CCSC 120 34 S24
+Michael Amoo&amp;R&amp;D
+&amp;F</oddHeader>
+    <oddFooter>&amp;CCSC 120 34 S24
+Michael Amoo&amp;R&amp;D
+&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -784,41 +5268,41 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2000000000</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2000000000</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>10000000000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
